--- a/项目问题记录表.xlsx
+++ b/项目问题记录表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>报错</t>
   </si>
@@ -79,6 +79,34 @@
     <t>发现是没有给&lt;template&gt;
   &lt;div id="basicLayout"&gt;设置全局ID，导致&lt;style scoped&gt;
 #basicLayout .header {没有识别到位</t>
+  </si>
+  <si>
+    <t>.cloud.mapper.UserMapper' available: expected at least 1 bean which qualifies as autowire candidate. Dependency annotations:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spring 框架找不到 UserMapper 这个组件。</t>
+  </si>
+  <si>
+    <t>修改@MapperScan("com.et.cloud.mapper")为当前的正常路径即可</t>
+  </si>
+  <si>
+    <t>http://localhost:8123/api/doc.html#/default/user-controller/getUserLoginUsingPOST</t>
+  </si>
+  <si>
+    <t>无法进行调试</t>
+  </si>
+  <si>
+    <t>knife4j里面没有关闭生产环境限制:
+  # 开启 Knife4j 的增强功能
+  enable: true
+  # 【关键】关闭生产环境限制，允许在线调试
+  production: false</t>
+  </si>
+  <si>
+    <t>二次发生不能修改里面文件的情况</t>
+  </si>
+  <si>
+    <t>发现是supercopy导致的，关闭插件可用</t>
   </si>
 </sst>
 </file>
@@ -708,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -723,6 +751,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1035,13 +1069,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="81.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.375" style="2" customWidth="1"/>
@@ -1090,7 +1124,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" ht="40.5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="81" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="2:3">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="http://localhost:8123/api/doc.html#/default/user-controller/getUserLoginUsingPOST"/>
+    <hyperlink ref="B6" r:id="rId1" display="无法进行调试"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/项目问题记录表.xlsx
+++ b/项目问题记录表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>报错</t>
   </si>
@@ -108,6 +108,73 @@
   <si>
     <t>发现是supercopy导致的，关闭插件可用</t>
   </si>
+  <si>
+    <t>上传图片发生错误，无法正确上柴</t>
+  </si>
+  <si>
+    <t>1.问题出现在private CosManager cosManager;，没有使用@Resource激活</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Caused by: java.net.UnknownHostException: cloud-1380686335.cos.chongqing.myqcloud.com，域名配置错了，修改配置文件
+</t>
+  </si>
+  <si>
+    <t>错误排查流程：
+看顶层日志：发生了什么异常？（log.error 或 Caused by）
+找根本原因：为什么会发生这个异常？（一路往下找 Caused by）
+找代码位置：在我代码的哪里触发了这个异常？（找自己的包名）</t>
+  </si>
+  <si>
+    <t>现象: 在执行图片上传功能时，程序抛出异常，导致上传失败。
+根本原因: java.lang.NullPointerException (空指针异常)。
+发生位置: com.et.cloud.manager.FileManager 类的 uploadPicture 方法内部，具体是在尝试使用 cosManager 对象调用方法时（例如 cosManager.putObject()）。调试信息确认，在 FileManager 实例中，cosManager 字段的值为 null。</t>
+  </si>
+  <si>
+    <t>本次问题的核心是 Spring 依赖注入 (DI) 失效。我们通过排查，最终定位了根本原因：
+初步排查：首先确认了 CosManager 类本身有 @Component 注解，并且 FileManager 类中也正确使用了 @Resource 注解来请求注入。因此，问题不在于注解的缺失。
+深入排查：接着检查了 Spring Boot 的组件扫描路径。主启动类 CloudApplication 位于 com.et.cloud 包，而 CosManager 和 FileManager 位于其子包 com.et.cloud.manager 中，属于正确的扫描范围。因此，也排除了组件扫描失败的可能性。
+最终定位：问题的根源在于调用链的上游——PictureServiceImpl 类。在该类中，FileManager 实例是通过 FileManager fileManager = new FileManager(); 的方式手动创建的。
+当使用 new 关键字手动创建一个对象时，这个对象是一个普通的 Java 对象，完全脱离了 Spring 容器的管理。
+Spring 的依赖注入机制（@Resource 或 @Autowired）只会对自己管理的 Bean 生效。
+因此，这个手动 new 出来的 fileManager 对象，其内部的 cosManager 字段永远不会被 Spring 注入，导致其值恒为 null，从而在调用时引发了空指针异常。</t>
+  </si>
+  <si>
+    <t>具体操作：
+修改 PictureServiceImpl.java 文件中对 FileManager 的声明。
+修改前：
+Java
+public class PictureServiceImpl ... {
+    FileManager fileManager = new FileManager();
+    // ...
+}
+修改后：
+Java
+import javax.annotation.Resource; // 导入注入注解
+@Service
+public class PictureServiceImpl ... {
+    @Resource // 使用注解让 Spring 注入
+    private FileManager fileManager;
+    // ...
+}</t>
+  </si>
+  <si>
+    <t>报错现象 (Error)
+前端界面：在图片详情页（PictureDetailPage.vue），“图片信息”区域的“作者”一栏，用户头像无法显示，而是展示为一个灰色的圆形占位图标。
+前端调试：通过浏览器开发者工具（F12）检查元素，发现 &lt;a-avatar&gt; 组件渲染出的 HTML 结构中不包含 &lt;img&gt; 标签，证实了传递给 :src 属性的图片地址为空或无效。
+数据追溯：通过在前端打印从后端接口 /get/vis 返回的数据，发现 picture.user 对象中的 userAvatar 字段为 null 或 undefined，确认了前端收到的数据本身不完整</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以肯定的是前端的逻辑不会出错，那就一定是函数的返回有问题，查了下前端是依赖getPictureVis，于是转向后端 PictureServiceImpl.java </t>
+  </si>
+  <si>
+    <t>错误的核心逻辑在于：
+混淆了 ID：代码错误地将图片的 ID (picture.getId()) 当作了作者的 ID (picture.getUserId()) 来使用。
+错误代码： Long userId = pictureVis.getId();
+错误的关联查询：程序拿着图片的 ID 去用户表（user table）中进行查询 (userService.getById(...))。
+查询失败：由于用户 ID 和图片 ID 几乎不可能碰巧相同，这次查询绝大多数情况下会返回 null（找不到对应的用户）。
+数据封装失败：因为没有查询到正确的 User 对象，最终封装到 PictureVis 中的 user 对象就是空的，自然也就没有 userAvatar 字段。
+前端展示失败：前端收到了不完整的 PictureVis 数据，导致头像无法显示</t>
+  </si>
 </sst>
 </file>
 
@@ -119,23 +186,9 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
+  <fonts count="20">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -606,153 +659,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1069,13 +1116,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="81.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.375" style="2" customWidth="1"/>
@@ -1083,8 +1130,8 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1094,8 +1141,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="135" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="297" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1136,10 +1183,10 @@
       </c>
     </row>
     <row r="6" ht="81" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1152,6 +1199,44 @@
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="94.5" spans="2:3">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="409.5" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="126" customHeight="1" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/项目问题记录表.xlsx
+++ b/项目问题记录表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>报错</t>
   </si>
@@ -174,6 +174,30 @@
 查询失败：由于用户 ID 和图片 ID 几乎不可能碰巧相同，这次查询绝大多数情况下会返回 null（找不到对应的用户）。
 数据封装失败：因为没有查询到正确的 User 对象，最终封装到 PictureVis 中的 user 对象就是空的，自然也就没有 userAvatar 字段。
 前端展示失败：前端收到了不完整的 PictureVis 数据，导致头像无法显示</t>
+  </si>
+  <si>
+    <t>报错现象 (Error)
+前端界面：在“我的空间”页面 (SpaceDetailPage.vue)，图片列表区域为空，无法显示已上传到该空间的图片。
+数据库检查：数据库 picture 表中存在 spaceId 与当前空间 ID 匹配的记录，但其 reviewStatus（审核状态）为 0（审核中）。</t>
+  </si>
+  <si>
+    <t>前端 API 调用错误：
+SpaceDetailPage.vue 页面错误地调用了 listPictureVisByPageUsingPost 接口（即后端的 /api/picture/list/page/vis）。
+这个 /vis 接口是为“公共图库”设计的，其后端逻辑强制要求 reviewStatus = PASS（审核通过）。
+由于空间内的图片状态为 0（审核中），不满足 /vis 接口的查询条件，因此接口返回空列表。
+后端正确接口被阻断：
+后端存在一个逻辑正确的接口 listPictureByPageUsingPost（即 /api/picture/list/page），该接口会根据 spaceId 查询，并且不会强制要求“审核通过”，这符合“我的空间”的业务需求。
+但是，该接口在 PictureController.java 中被错误地添加了 @AuthCheck(mustRole = UserConstant.ADMIN_ROLE) 注解，导致普通用户无法调用。</t>
+  </si>
+  <si>
+    <t>1. 修复后端权限：
+文件：PictureController.java
+操作：找到 @PostMapping("/list/page") 对应的 listPictureByPage 方法，将其顶部的 @AuthCheck(mustRole = UserConstant.ADMIN_ROLE) 注解删除（或注释掉）。
+理由：该方法内部已有“空间归属权”的校验逻辑，此 AuthCheck 注解多余且错误地阻断了普通用户访问自己的空间。
+2. 修复前端调用：
+文件：src/views/SpaceDetailPage.vue
+操作：在 fetchData 函数中，将 API 调用从 await listPictureVisByPageUsingPost(params) 替换为 await listPictureByPageUsingPost(params)。同时修改 import 语句，引入正确的函数。
+理由：调用正确的后端接口，该接口逻辑（不要求审核状态）与“我的空间”业务场景一致。</t>
   </si>
 </sst>
 </file>
@@ -1116,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1237,6 +1261,17 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="409.5" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/项目问题记录表.xlsx
+++ b/项目问题记录表.xlsx
@@ -1143,14 +1143,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="81.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
